--- a/job1.xlsx
+++ b/job1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\jobbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D22F90D-7FB1-481E-AA9B-DA028217981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886FEA02-6F91-42A7-B94C-30A8834B87F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{006FF126-08F1-469D-BF5E-25F524E78C58}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>API NAME</t>
   </si>
@@ -288,6 +288,57 @@
   </si>
   <si>
     <t>Add order</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/add_historical_performance/</t>
+  </si>
+  <si>
+    <t>{"status": "historical performance added successfully"}</t>
+  </si>
+  <si>
+    <t>{
+  "hid": 1,
+  "vendor": 1,
+  "date": "2023-12-06T12:34:56",  // Replace with an actual date and time
+  "on_time_delivery_rate": 95.5,
+  "quality_rating_avg": 4.2,
+  "average_response_time": 24.5,
+  "fulfillment_rate": 98.8
+}</t>
+  </si>
+  <si>
+    <t>list order</t>
+  </si>
+  <si>
+    <t>Update order</t>
+  </si>
+  <si>
+    <t>retrieve order</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/update_historical_performance_details/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/list_historical_performances/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/retrieve_historical_performance/1</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/delete_historical_performance_details/</t>
+  </si>
+  <si>
+    <t>{"status": "order Deleted Successfully"}</t>
+  </si>
+  <si>
+    <t>{
+  "hid": 1,
+  "vendor":1,
+  "on_time_delivery_rate": 96.0,
+  "quality_rating_avg": 4.5,
+  "average_response_time": 23.0,
+  "fulfillment_rate": 99.0
+}</t>
   </si>
 </sst>
 </file>
@@ -662,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95231365-2543-49DD-B774-95657CE86509}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,9 +900,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -866,6 +985,11 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{0D9AFC18-8AA5-4169-A1E9-DABA2B2E698E}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{CA35A2B8-C61E-45DA-A93D-BEB1FDBD0818}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{FD7256E0-EBBA-4582-AC53-52DF7B919849}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{EA6D1AB8-62F0-4825-A929-C5613A83E6EB}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{78017E53-A9EA-49ED-878B-773C5F1E4EEC}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{CE810636-FF0D-45A3-808F-9A28B45471AD}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{D70FA9FF-AE03-430C-8BD8-595F09D59BC7}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{F17F4BAE-30B2-4543-909D-B35475A8EC62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
